--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9039_IndexAndNoIndexDTWithDifferentTypesV2.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9039_IndexAndNoIndexDTWithDifferentTypesV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16A89C-C582-4AFA-979A-EDC996DC7349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C20F7-A5C6-4FBE-B528-A20C719958B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Range" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Equals_Expression" sheetId="6" r:id="rId6"/>
     <sheet name="Contains" sheetId="9" r:id="rId7"/>
     <sheet name="Contains_Expression" sheetId="10" r:id="rId8"/>
+    <sheet name="Relation" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>C1</t>
   </si>
@@ -241,6 +242,21 @@
   </si>
   <si>
     <t>Double[] x</t>
+  </si>
+  <si>
+    <t>Rules Integer indexInt_Relation_ParamDouble(Double param)</t>
+  </si>
+  <si>
+    <t>param &lt; x</t>
+  </si>
+  <si>
+    <t>Test indexInt_Relation_ParamDouble indexInt_Relation_ParamDoubleTest</t>
+  </si>
+  <si>
+    <t>Rules Integer indexDouble_Relation_ParamInteger(Integer param)</t>
+  </si>
+  <si>
+    <t>Test  indexDouble_Relation_ParamInteger indexDouble_Relation_ParamIntegerTest</t>
   </si>
 </sst>
 </file>
@@ -3382,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1D285-ADEB-4203-A39D-42362C353566}">
   <dimension ref="B3:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3589,4 +3605,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EB6B-3492-4478-8CAD-3A435AD39DD8}">
+  <dimension ref="B4:C59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="2" max="2" width="31.59765625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="69.265625" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.06640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="6">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="6">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>